--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -70,9 +70,6 @@
     <t>Wie wird die Prüfung durchgeführt?</t>
   </si>
   <si>
-    <t>- Auf Papier und am Rechner</t>
-  </si>
-  <si>
     <t>- Laptop inklusive Web</t>
   </si>
   <si>
@@ -85,18 +82,9 @@
     <t>- Modalitäten</t>
   </si>
   <si>
-    <t>- open book, open laptop, open internet (gilt für beide Teile HTML und JavaScript)</t>
-  </si>
-  <si>
-    <t>tbd.</t>
-  </si>
-  <si>
     <t>Prüfungsmodalität (allgemein)</t>
   </si>
   <si>
-    <t>Die Details der Prüfungsmodalitäten sind bei der Zwischen- und Schlussprüfung aufgeführt.</t>
-  </si>
-  <si>
     <t>Teil HTML5</t>
   </si>
   <si>
@@ -116,6 +104,18 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>- open book, open laptop, open internet (gilt für beide Teile, JavaScript und HTML5)</t>
+  </si>
+  <si>
+    <t>- open book, open laptop, open internet (gilt für beide Teile HTML5 und PHP)</t>
+  </si>
+  <si>
+    <t>- Die Details der Prüfungsmodalitäten sind bei der Zwischen- und Schlussprüfung aufgeführt.</t>
+  </si>
+  <si>
+    <t>- auf Papier und am Rechner</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -633,7 +634,7 @@
         <v>Dienstag</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -823,7 +824,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -847,7 +848,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -863,7 +864,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -871,7 +872,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -879,15 +880,15 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
+      <c r="A27" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -906,7 +907,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="6">
         <v>0.4</v>
@@ -915,10 +916,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -982,7 +983,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1009,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -1025,7 +1026,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="7"/>
       <c r="E41" s="8"/>
@@ -1033,7 +1034,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1049,7 +1050,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B45" s="6">
         <v>0.6</v>
@@ -1057,10 +1058,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1076,7 +1077,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1099,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -1151,7 +1152,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -1160,8 +1161,8 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="11" t="s">
-        <v>24</v>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>

--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>KW</t>
   </si>
@@ -34,9 +34,6 @@
     <t>MS</t>
   </si>
   <si>
-    <t>Ferienzeit Frühling und Ostern</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Wochentag</t>
   </si>
   <si>
-    <t>Stellenbörsentag</t>
-  </si>
-  <si>
     <t>90 min</t>
   </si>
   <si>
@@ -115,7 +109,28 @@
     <t>- Die Details der Prüfungsmodalitäten sind bei der Zwischen- und Schlussprüfung aufgeführt.</t>
   </si>
   <si>
-    <t>- auf Papier und am Rechner</t>
+    <t>MS/BW</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>JavaScript / HTML5</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>- am Rechner</t>
   </si>
 </sst>
 </file>
@@ -175,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -499,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +528,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,299 +539,272 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>42052</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>TEXT(C2,"TTTT")</f>
-        <v>Dienstag</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="12">
+        <v>42263</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42270</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42277</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42284</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42059</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D17" si="0">TEXT(C3,"TTTT")</f>
-        <v>Dienstag</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42066</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42080</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12">
+        <v>42291</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="12">
-        <v>42087</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>42298</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>42094</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="C8" s="12">
+        <v>42305</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
-        <v>42101</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
+      <c r="C9" s="16">
+        <v>42312</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>42108</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
+      <c r="C10" s="16">
+        <v>42319</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42326</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42333</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42340</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42115</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>42122</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>42129</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>42136</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
+      <c r="C14" s="16">
+        <v>42347</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>42143</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
+      <c r="C15" s="16">
+        <v>42354</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42150</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42157</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
@@ -824,7 +813,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -832,7 +821,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -840,7 +829,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -848,7 +837,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -856,7 +845,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -864,7 +853,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -872,7 +861,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -880,7 +869,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -888,7 +877,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -901,13 +890,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="6">
         <v>0.4</v>
@@ -916,10 +905,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -937,7 +926,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -948,7 +937,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="14">
         <v>0.66669999999999996</v>
@@ -961,10 +950,10 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="13"/>
@@ -983,7 +972,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -994,7 +983,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="14">
         <v>0.33329999999999999</v>
@@ -1007,10 +996,10 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -1026,7 +1015,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="7"/>
       <c r="E41" s="8"/>
@@ -1034,7 +1023,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1045,12 +1034,12 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="6">
         <v>0.6</v>
@@ -1058,10 +1047,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1077,7 +1066,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1086,7 +1075,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="14">
         <v>0.33329999999999999</v>
@@ -1097,10 +1086,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -1115,7 +1104,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1124,7 +1113,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="14">
         <v>0.66669999999999996</v>
@@ -1135,10 +1124,10 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -1152,7 +1141,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -1162,7 +1151,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>

--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>KW</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>- am Rechner</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>15:15 - 18:35</t>
+  </si>
+  <si>
+    <t>13:15 - 16:50</t>
   </si>
 </sst>
 </file>
@@ -513,22 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,16 +548,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>38</v>
       </c>
@@ -558,12 +570,13 @@
       <c r="C2" s="12">
         <v>42263</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>39</v>
       </c>
@@ -573,12 +586,13 @@
       <c r="C3" s="12">
         <v>42270</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>40</v>
       </c>
@@ -588,12 +602,13 @@
       <c r="C4" s="12">
         <v>42277</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>41</v>
       </c>
@@ -603,12 +618,13 @@
       <c r="C5" s="12">
         <v>42284</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42</v>
       </c>
@@ -618,12 +634,13 @@
       <c r="C6" s="12">
         <v>42291</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43</v>
       </c>
@@ -633,12 +650,13 @@
       <c r="C7" s="12">
         <v>42298</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44</v>
       </c>
@@ -648,12 +666,13 @@
       <c r="C8" s="12">
         <v>42305</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45</v>
       </c>
@@ -664,16 +683,19 @@
         <v>42312</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>46</v>
       </c>
@@ -684,16 +706,19 @@
         <v>42319</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>47</v>
       </c>
@@ -704,16 +729,19 @@
         <v>42326</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>48</v>
       </c>
@@ -724,16 +752,19 @@
         <v>42333</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>49</v>
       </c>
@@ -744,19 +775,22 @@
         <v>42340</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>50</v>
       </c>
@@ -767,16 +801,19 @@
         <v>42347</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>51</v>
       </c>
@@ -787,123 +824,139 @@
         <v>42354</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6">
         <v>0.4</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -912,29 +965,32 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="11" t="s">
         <v>11</v>
@@ -943,11 +999,12 @@
         <v>0.66669999999999996</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="11" t="s">
         <v>10</v>
@@ -956,31 +1013,34 @@
         <v>12</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="11" t="s">
         <v>11</v>
@@ -989,11 +1049,12 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
         <v>10</v>
@@ -1002,42 +1063,43 @@
         <v>27</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="7"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>24</v>
       </c>
@@ -1055,15 +1117,17 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
         <v>22</v>
@@ -1071,8 +1135,9 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
         <v>11</v>
@@ -1081,9 +1146,10 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="14"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="11" t="s">
         <v>10</v>
@@ -1093,15 +1159,17 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
         <v>13</v>
@@ -1109,8 +1177,9 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="11" t="s">
         <v>11</v>
@@ -1119,9 +1188,10 @@
         <v>0.66669999999999996</v>
       </c>
       <c r="D53" s="14"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="14"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
         <v>10</v>
@@ -1131,15 +1201,17 @@
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>20</v>
       </c>
@@ -1147,8 +1219,9 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="7" t="s">
         <v>29</v>
@@ -1156,108 +1229,123 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Semesterplan" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Semesterplan!$A$1:$H$57</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -525,14 +528,15 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="5" width="17" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>

--- a/00_Admin/Semesterplan.xlsx
+++ b/00_Admin/Semesterplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>KW</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Zeit</t>
-  </si>
-  <si>
-    <t>15:15 - 18:35</t>
   </si>
   <si>
     <t>13:15 - 16:50</t>
@@ -528,7 +525,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +753,7 @@
         <v>42333</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>37</v>
@@ -779,7 +776,7 @@
         <v>42340</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>37</v>
@@ -805,7 +802,7 @@
         <v>42347</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>37</v>
@@ -828,7 +825,7 @@
         <v>42354</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>37</v>
